--- a/similarities/split_global/harmonic_similarity_timestamps_368.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_368.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,702 +484,742 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_104</t>
+          <t>jaah_77</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>jaah_16</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['D:7', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>['B:7', 'E:7', 'A']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:00.240000', '0:00:09.280000')]</t>
+          <t>('0:00:07.470000', '0:00:12.620000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:21.280000', '0:00:41.800000')]</t>
+          <t>('0:00:42.960000', '0:00:45.780000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-104#t=0.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-77#t=7.47</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=21.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-16#t=42.96</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_91</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_46</t>
+          <t>jaah_83</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'A#:maj/D', 'D#:maj']]</t>
+          <t>['A:min7/C', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'D']]</t>
+          <t>['A:min7', 'D:7', 'G']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:03:54.420000', '0:03:57.900000')]</t>
+          <t>('0:01:04.660000', '0:01:11.060000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:01:04.193106', '0:01:09.789115')]</t>
+          <t>('0:00:14.530000', '0:00:17.430000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=234.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=64.66</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-46#t=64.193106']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-83#t=14.53</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_93</t>
+          <t>schubert-winterreise_110</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_259</t>
+          <t>schubert-winterreise_208</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['A:min', 'C/5', 'F']]</t>
+          <t>['B:min', 'F#:7/A#', 'B:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['F#:min', 'A', 'D']]</t>
+          <t>['D:min', 'A:7/E', 'D:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:24.050634', '0:00:27.777437')]</t>
+          <t>('0:00:37.360000', '0:00:44.660000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:45.682000', '0:00:52.884000')]</t>
+          <t>('0:00:01.920000', '0:00:08.320000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-93#t=24.050634']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-110#t=37.36</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-259#t=45.682']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-208#t=1.92</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_73</t>
+          <t>isophonics_160</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['C:maj/E', 'G:maj/D', 'G:7/F']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['Db/2', 'Ab:maj', 'Ab:7']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:00.820000', '0:00:08.800000'), ('0:00:55.580000', '0:01:02.320000')]</t>
+          <t>('0:01:00.100000', '0:01:05.020000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:01:06.920000', '0:01:08.180000'), ('0:01:05.200000', '0:01:07.500000')]</t>
+          <t>('0:01:30.236000', '0:01:38.612000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=0.82', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=55.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=60.1</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=66.92', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=65.2']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=90.236</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_70</t>
+          <t>isophonics_5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_45</t>
+          <t>isophonics_53</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['Gb:maj6', 'Ab:7', 'Db', 'Db:7']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['G:min7', 'C:7', 'F:maj', 'F:7/b7']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:55.470000', '0:00:59.320000')]</t>
+          <t>('0:00:09.162102', '0:00:14.073123')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:47.673000', '0:00:53.859000')]</t>
+          <t>('0:00:40.490000', '0:00:47.860000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-70#t=55.47']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-5#t=9.162102</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=47.673']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=40.49</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>isophonics_296</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
+          <t>isophonics_60</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>['C:maj', 'D:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['C', 'D', 'G']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:03', '0:00:07.380000')]</t>
+          <t>('0:00:12.446000', '0:00:16.277000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:37.360000', '0:00:44.660000')]</t>
+          <t>('0:00:00.980790', '0:00:05.421882')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=3.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=12.446</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-110#t=37.36']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-60#t=0.98079</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_133</t>
+          <t>schubert-winterreise_172</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
+          <t>jaah_43</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['B:7/A', 'E:maj/G#', 'A:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['Bb:7', 'Eb', 'Ab']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:01:03.240000', '0:01:04.620000'), ('0:01:01.600000', '0:01:03.840000')]</t>
+          <t>('0:00:52.020000', '0:00:58.840000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:00.820000', '0:00:08.800000'), ('0:00:55.580000', '0:01:02.320000')]</t>
+          <t>('0:01:33.270000', '0:01:42.970000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=63.24', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=61.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=52.02</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=0.82', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=55.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-43#t=93.27</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jaah_69</t>
+          <t>jaah_39</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>isophonics_107</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['Eb:7', 'Ab', 'Db', 'Ab', 'Db']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B']]</t>
+          <t>['B:7', 'E', 'A', 'E', 'A']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:33.480000', '0:00:45.590000')]</t>
+          <t>('0:02:01.030000', '0:02:09.590000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:01:08.640000', '0:01:17.380000')]</t>
+          <t>('0:01:35.135873', '0:01:48.092607')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-69#t=33.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=121.03</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=68.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-107#t=95.135873</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_75</t>
+          <t>schubert-winterreise_148</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jaah_19</t>
+          <t>schubert-winterreise_44</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['F:min7', 'Bb:7', 'Eb:maj6', 'F:7']]</t>
+          <t>['G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['Bb:min7', 'Eb:7', 'Ab:maj6', 'Bb:7']]</t>
+          <t>['A#/F', 'F:7', 'A#']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:36.140000', '0:00:45.570000')]</t>
+          <t>('0:00:08.080000', '0:00:19.060000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:33.280000', '0:00:36.590000')]</t>
+          <t>('0:04:31.220000', '0:04:38.420000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-75#t=36.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-148#t=8.08</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-19#t=33.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=271.22</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_73</t>
+          <t>schubert-winterreise_59</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
+          <t>schubert-winterreise_134</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb'], ['F:7', 'Bb', 'Bb:7/3']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj'], ['A#:7', 'D#:maj', 'D#:7']]</t>
+          <t>['C:maj/G', 'F:maj', 'C:maj/G']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:19.130000', '0:00:20.830000'), ('0:00:10.080000', '0:00:11.390000')]</t>
+          <t>('0:00:59.220000', '0:01:06.880000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:04.080000', '0:01:13.880000'), ('0:01:04.580000', '0:01:17.220000')]</t>
+          <t>('0:02:22.140000', '0:02:26.800000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-73#t=19.13', 'https://soundcloud.com/jacopo-de-berardinis/jaah-73#t=10.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=59.22</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=64.08', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=64.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-134#t=142.14</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_224</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>schubert-winterreise_207</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'D']]</t>
+          <t>['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'C:maj/G']]</t>
+          <t>['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:26.987959', '0:00:33.059977')]</t>
+          <t>('0:01:41.060000', '0:01:42.380000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:20.240000', '0:00:26.720000')]</t>
+          <t>('0:00:31.260000', '0:00:45.880000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-224#t=26.987959']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=101.06</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=20.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-207#t=31.26</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>isophonics_238</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>schubert-winterreise_142</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
+          <t>['B:dim7', 'C', 'F']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:maj', 'A#:min']]</t>
+          <t>['B:dim7', 'C:maj', 'F:maj/A']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:20.220000', '0:01:27.220000')]</t>
+          <t>('0:00:17.769637', '0:00:22.996281')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:15.600000', '0:00:24.080000')]</t>
+          <t>('0:00:15.400000', '0:00:17.900000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=80.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-238#t=17.769637</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=15.6']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=15.4</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:5By7Pzgl6TMuVJG168VWzS</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>schubert-winterreise_71</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min'], ['G:min/A#', 'C:min', 'G:min/A#']]</t>
+          <t>['C:min', 'G:7/D', 'C:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:47.580000', '0:00:50.040000'), ('0:01:37.880000', '0:01:48.980000')]</t>
+          <t>('0:00:00.360000', '0:00:07.140000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:01:24', '0:01:30.840000'), ('0:00:28.800000', '0:00:36.860000')]</t>
+          <t>('0:00:08.200000', '0:00:12.660000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=47.58', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=97.88']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-71#t=0.36</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-185#t=84.0', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-185#t=28.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=8.2</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_34</t>
+          <t>isophonics_70</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_117</t>
+          <t>isophonics_133</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['Bb', 'Eb:7', 'Ab']]</t>
+          <t>['D:min', 'G', 'C']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:7', 'C:maj']]</t>
+          <t>['E:min', 'A', 'D']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:23.428956', '0:00:30.731632')]</t>
+          <t>('0:01:20.956000', '0:01:25.176000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:03.460000', '0:00:07.160000')]</t>
+          <t>('0:00:25.006780', '0:00:29.410731')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-34#t=23.428956']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-70#t=80.956</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-117#t=3.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-133#t=25.00678</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
+          <t>schubert-winterreise_104</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_189</t>
+          <t>schubert-winterreise_181</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
+          <t>['C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['D#:maj/A#', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:16.040000', '0:00:18.720000')]</t>
+          <t>('0:00:00.240000', '0:00:08.180000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:58.320000', '0:00:59.680000')]</t>
+          <t>('0:01:05.280000', '0:01:14.480000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-88#t=16.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-104#t=0.24</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=58.32']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=65.28</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
